--- a/examples/integration-harness/src/main/resources/data/global-multi-asset/emea_positions.xlsx
+++ b/examples/integration-harness/src/main/resources/data/global-multi-asset/emea_positions.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,6 +658,228 @@
       </c>
       <c r="Y2" t="n">
         <v>0.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TRD-DEMO1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LEG-DEMO</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ALLOC-DEMO1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DEMO-PORT</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ISIN-DEMO1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>25/08/2024</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>27/08/2024</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>99500</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M3" t="n">
+        <v>175</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="O3" t="n">
+        <v>166.4</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>READY</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>AFFIRMED</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>DemoCounterparty</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>DemoBroker</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>C-JPY</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>GLOBAL</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>GLOBAL-DEMO</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>emea_positions.xlsx</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>MATCH-CONFIRMED</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TRD-DEMO2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LEG-DEMO</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ALLOC-DEMO2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DEMO-PORT</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ISIN-DEMO2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>JPY</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>21/08/2024</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>23/08/2024</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="J4" t="n">
+        <v>255500</v>
+      </c>
+      <c r="K4" t="n">
+        <v>255000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M4" t="n">
+        <v>175</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="O4" t="n">
+        <v>170.3</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>READY</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>MATCHED</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>EuroPrime</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>BrokerLondon</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>C-JPY</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>EMEA</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>EMEA-DEMO</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>emea_positions.xlsx</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Synthetic mismatch</t>
+        </is>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.96</v>
       </c>
     </row>
   </sheetData>
